--- a/config_1.19/rank_server.xlsx
+++ b/config_1.19/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="266">
   <si>
     <t>id|</t>
   </si>
@@ -1213,6 +1213,14 @@
   </si>
   <si>
     <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>khqd_001_lzphb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵珠收集榜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1760,11 +1768,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35:G36"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2717,39 +2725,74 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28">
+    <row r="27" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27">
         <v>26</v>
       </c>
-      <c r="B27" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" s="29" t="s">
+      <c r="B27" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <v>1610407800</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="27">
         <v>1610985599</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="H27" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="27">
         <v>26</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="27">
         <v>26</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="27">
         <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="E28" s="28">
+        <v>1610409600</v>
+      </c>
+      <c r="F28" s="28">
+        <v>1611590399</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="28">
+        <v>27</v>
+      </c>
+      <c r="K28" s="28">
+        <v>27</v>
+      </c>
+      <c r="L28" s="28">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2761,11 +2804,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A51:D52"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3459,31 +3502,59 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="31">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="31">
+      <c r="B51" s="5">
         <v>26</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="31">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="31">
+      <c r="B52" s="5">
         <v>26</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D52" s="5">
         <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="31">
+        <v>52</v>
+      </c>
+      <c r="B53" s="31">
+        <v>27</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="31">
+        <v>53</v>
+      </c>
+      <c r="B54" s="31">
+        <v>27</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" s="31">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3495,10 +3566,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A35:E36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4089,36 +4160,70 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="31">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="5">
         <v>27</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="5">
         <v>9</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="31">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="31">
+      <c r="B36" s="5">
         <v>27</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="31">
+        <v>36</v>
+      </c>
+      <c r="B37" s="31">
+        <v>28</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="31">
+        <v>9</v>
+      </c>
+      <c r="E37" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="31">
+        <v>37</v>
+      </c>
+      <c r="B38" s="31">
+        <v>28</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" s="31">
         <v>2</v>
       </c>
     </row>
@@ -4228,11 +4333,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27:G27"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4845,26 +4950,49 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="31">
+    <row r="27" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="31">
-        <v>1</v>
-      </c>
-      <c r="C27" s="31">
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5">
         <v>20</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="5">
         <v>100</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="5">
         <v>20</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="5">
         <v>180</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="31">
+        <v>27</v>
+      </c>
+      <c r="B28" s="31">
+        <v>1</v>
+      </c>
+      <c r="C28" s="31">
+        <v>20</v>
+      </c>
+      <c r="D28" s="31">
+        <v>100</v>
+      </c>
+      <c r="E28" s="31">
+        <v>20</v>
+      </c>
+      <c r="F28" s="31">
+        <v>180</v>
+      </c>
+      <c r="G28" s="31">
         <v>10</v>
       </c>
     </row>
@@ -4876,11 +5004,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:D25"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5071,7 +5199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -5085,7 +5213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -5099,7 +5227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -5113,7 +5241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -5127,7 +5255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -5141,7 +5269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -5225,18 +5353,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="31">
+    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="5">
         <v>28</v>
       </c>
-      <c r="C25" s="31">
-        <v>1</v>
-      </c>
-      <c r="D25" s="31">
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
         <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="31">
+        <v>25</v>
+      </c>
+      <c r="B26" s="31">
+        <v>29</v>
+      </c>
+      <c r="C26" s="31">
+        <v>1</v>
+      </c>
+      <c r="D26" s="31">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5248,11 +5390,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29:E30"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5597,15 +5739,26 @@
         <v>1610380799</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="31">
+    <row r="29" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="5">
         <v>1610985599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="31">
+        <v>29</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="28">
+        <v>1611590399</v>
       </c>
     </row>
   </sheetData>
@@ -5616,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J150" sqref="J150:J151"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9127,156 +9280,310 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="31">
+      <c r="A158" s="5">
         <v>157</v>
       </c>
-      <c r="B158" s="31">
+      <c r="B158" s="5">
         <v>24</v>
       </c>
-      <c r="C158" s="31">
-        <v>1</v>
-      </c>
-      <c r="D158" s="31">
-        <v>1</v>
-      </c>
-      <c r="E158" s="31"/>
-      <c r="F158" s="31"/>
-      <c r="G158" s="31">
+      <c r="C158" s="5">
+        <v>1</v>
+      </c>
+      <c r="D158" s="5">
+        <v>1</v>
+      </c>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5">
         <v>142</v>
       </c>
-      <c r="H158" s="32" t="s">
+      <c r="H158" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="31">
+      <c r="A159" s="5">
         <v>158</v>
       </c>
-      <c r="B159" s="31">
+      <c r="B159" s="5">
         <v>24</v>
       </c>
-      <c r="C159" s="31">
+      <c r="C159" s="5">
         <v>2</v>
       </c>
-      <c r="D159" s="31">
+      <c r="D159" s="5">
         <v>2</v>
       </c>
-      <c r="E159" s="31"/>
-      <c r="F159" s="31"/>
-      <c r="G159" s="31">
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5">
         <v>143</v>
       </c>
-      <c r="H159" s="32" t="s">
+      <c r="H159" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="31">
+      <c r="A160" s="5">
         <v>159</v>
       </c>
-      <c r="B160" s="31">
+      <c r="B160" s="5">
         <v>24</v>
       </c>
-      <c r="C160" s="31">
+      <c r="C160" s="5">
         <v>3</v>
       </c>
-      <c r="D160" s="31">
+      <c r="D160" s="5">
         <v>3</v>
       </c>
-      <c r="E160" s="31"/>
-      <c r="F160" s="31"/>
-      <c r="G160" s="31">
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5">
         <v>144</v>
       </c>
-      <c r="H160" s="32" t="s">
+      <c r="H160" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="31">
+      <c r="A161" s="5">
         <v>160</v>
       </c>
-      <c r="B161" s="31">
+      <c r="B161" s="5">
         <v>24</v>
       </c>
-      <c r="C161" s="31">
+      <c r="C161" s="5">
         <v>4</v>
       </c>
-      <c r="D161" s="31">
+      <c r="D161" s="5">
         <v>6</v>
       </c>
-      <c r="E161" s="31"/>
-      <c r="F161" s="31"/>
-      <c r="G161" s="31">
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5">
         <v>145</v>
       </c>
-      <c r="H161" s="32" t="s">
+      <c r="H161" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="31">
+      <c r="A162" s="5">
         <v>161</v>
       </c>
-      <c r="B162" s="31">
+      <c r="B162" s="5">
         <v>24</v>
       </c>
-      <c r="C162" s="31">
+      <c r="C162" s="5">
         <v>7</v>
       </c>
-      <c r="D162" s="31">
+      <c r="D162" s="5">
         <v>10</v>
       </c>
-      <c r="E162" s="31"/>
-      <c r="F162" s="31"/>
-      <c r="G162" s="31">
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5">
         <v>146</v>
       </c>
-      <c r="H162" s="32" t="s">
+      <c r="H162" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="31">
+      <c r="A163" s="5">
         <v>162</v>
       </c>
-      <c r="B163" s="31">
+      <c r="B163" s="5">
         <v>24</v>
       </c>
-      <c r="C163" s="31">
+      <c r="C163" s="5">
         <v>11</v>
       </c>
-      <c r="D163" s="31">
+      <c r="D163" s="5">
         <v>15</v>
       </c>
-      <c r="E163" s="31"/>
-      <c r="F163" s="31"/>
-      <c r="G163" s="31">
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5">
         <v>147</v>
       </c>
-      <c r="H163" s="32" t="s">
+      <c r="H163" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="31">
+      <c r="A164" s="5">
         <v>163</v>
       </c>
-      <c r="B164" s="31">
+      <c r="B164" s="5">
         <v>24</v>
       </c>
-      <c r="C164" s="31">
+      <c r="C164" s="5">
         <v>16</v>
       </c>
-      <c r="D164" s="31">
+      <c r="D164" s="5">
         <v>20</v>
       </c>
-      <c r="E164" s="31"/>
-      <c r="F164" s="31"/>
-      <c r="G164" s="31">
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5">
         <v>148</v>
       </c>
-      <c r="H164" s="32" t="s">
+      <c r="H164" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="31">
+        <v>164</v>
+      </c>
+      <c r="B165" s="31">
+        <v>25</v>
+      </c>
+      <c r="C165" s="31">
+        <v>1</v>
+      </c>
+      <c r="D165" s="31">
+        <v>1</v>
+      </c>
+      <c r="E165" s="31"/>
+      <c r="F165" s="31"/>
+      <c r="G165" s="31">
+        <v>149</v>
+      </c>
+      <c r="H165" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="31">
+        <v>165</v>
+      </c>
+      <c r="B166" s="31">
+        <v>25</v>
+      </c>
+      <c r="C166" s="31">
+        <v>2</v>
+      </c>
+      <c r="D166" s="31">
+        <v>2</v>
+      </c>
+      <c r="E166" s="31"/>
+      <c r="F166" s="31"/>
+      <c r="G166" s="31">
+        <v>150</v>
+      </c>
+      <c r="H166" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="31">
+        <v>166</v>
+      </c>
+      <c r="B167" s="31">
+        <v>25</v>
+      </c>
+      <c r="C167" s="31">
+        <v>3</v>
+      </c>
+      <c r="D167" s="31">
+        <v>3</v>
+      </c>
+      <c r="E167" s="31"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="31">
+        <v>151</v>
+      </c>
+      <c r="H167" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="31">
+        <v>167</v>
+      </c>
+      <c r="B168" s="31">
+        <v>25</v>
+      </c>
+      <c r="C168" s="31">
+        <v>4</v>
+      </c>
+      <c r="D168" s="31">
+        <v>6</v>
+      </c>
+      <c r="E168" s="31"/>
+      <c r="F168" s="31"/>
+      <c r="G168" s="31">
+        <v>152</v>
+      </c>
+      <c r="H168" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="31">
+        <v>168</v>
+      </c>
+      <c r="B169" s="31">
+        <v>25</v>
+      </c>
+      <c r="C169" s="31">
+        <v>7</v>
+      </c>
+      <c r="D169" s="31">
+        <v>10</v>
+      </c>
+      <c r="E169" s="31"/>
+      <c r="F169" s="31"/>
+      <c r="G169" s="31">
+        <v>153</v>
+      </c>
+      <c r="H169" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="31">
+        <v>169</v>
+      </c>
+      <c r="B170" s="31">
+        <v>25</v>
+      </c>
+      <c r="C170" s="31">
+        <v>11</v>
+      </c>
+      <c r="D170" s="31">
+        <v>15</v>
+      </c>
+      <c r="E170" s="31"/>
+      <c r="F170" s="31"/>
+      <c r="G170" s="31">
+        <v>154</v>
+      </c>
+      <c r="H170" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="31">
+        <v>170</v>
+      </c>
+      <c r="B171" s="31">
+        <v>25</v>
+      </c>
+      <c r="C171" s="31">
+        <v>16</v>
+      </c>
+      <c r="D171" s="31">
+        <v>20</v>
+      </c>
+      <c r="E171" s="31"/>
+      <c r="F171" s="31"/>
+      <c r="G171" s="31">
+        <v>155</v>
+      </c>
+      <c r="H171" s="32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9289,11 +9596,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J144" sqref="J144"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12212,142 +12519,282 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="31">
+      <c r="A147" s="5">
         <v>146</v>
       </c>
-      <c r="B147" s="31">
+      <c r="B147" s="5">
         <v>142</v>
       </c>
-      <c r="C147" s="33" t="s">
+      <c r="C147" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D147" s="33" t="s">
+      <c r="D147" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E147" s="31">
+      <c r="E147" s="5">
         <v>100000</v>
       </c>
-      <c r="F147" s="31">
+      <c r="F147" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="31">
+      <c r="A148" s="5">
         <v>147</v>
       </c>
-      <c r="B148" s="31">
+      <c r="B148" s="5">
         <v>143</v>
       </c>
-      <c r="C148" s="33" t="s">
+      <c r="C148" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D148" s="33" t="s">
+      <c r="D148" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E148" s="31">
+      <c r="E148" s="5">
         <v>30000</v>
       </c>
-      <c r="F148" s="31">
+      <c r="F148" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="31">
+      <c r="A149" s="5">
         <v>148</v>
       </c>
-      <c r="B149" s="31">
+      <c r="B149" s="5">
         <v>144</v>
       </c>
-      <c r="C149" s="33" t="s">
+      <c r="C149" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D149" s="33" t="s">
+      <c r="D149" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E149" s="31">
+      <c r="E149" s="5">
         <v>10000</v>
       </c>
-      <c r="F149" s="31">
+      <c r="F149" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="31">
+      <c r="A150" s="5">
         <v>149</v>
       </c>
-      <c r="B150" s="31">
+      <c r="B150" s="5">
         <v>145</v>
       </c>
-      <c r="C150" s="33" t="s">
+      <c r="C150" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D150" s="33" t="s">
+      <c r="D150" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E150" s="31">
+      <c r="E150" s="5">
         <v>3000</v>
       </c>
-      <c r="F150" s="31">
+      <c r="F150" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="31">
+      <c r="A151" s="5">
         <v>150</v>
       </c>
-      <c r="B151" s="31">
+      <c r="B151" s="5">
         <v>146</v>
       </c>
-      <c r="C151" s="33" t="s">
+      <c r="C151" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D151" s="33" t="s">
+      <c r="D151" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E151" s="31">
+      <c r="E151" s="5">
         <v>2000</v>
       </c>
-      <c r="F151" s="31">
+      <c r="F151" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="31">
+      <c r="A152" s="5">
         <v>151</v>
       </c>
-      <c r="B152" s="31">
+      <c r="B152" s="5">
         <v>147</v>
       </c>
-      <c r="C152" s="33" t="s">
+      <c r="C152" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D152" s="33" t="s">
+      <c r="D152" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E152" s="31">
+      <c r="E152" s="5">
         <v>1000</v>
       </c>
-      <c r="F152" s="31">
+      <c r="F152" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="31">
+      <c r="A153" s="5">
         <v>152</v>
       </c>
-      <c r="B153" s="31">
+      <c r="B153" s="5">
         <v>148</v>
       </c>
-      <c r="C153" s="33" t="s">
+      <c r="C153" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D153" s="33" t="s">
+      <c r="D153" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E153" s="31">
+      <c r="E153" s="5">
         <v>500</v>
       </c>
-      <c r="F153" s="31">
+      <c r="F153" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="31">
+        <v>153</v>
+      </c>
+      <c r="B154" s="31">
+        <v>149</v>
+      </c>
+      <c r="C154" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D154" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E154" s="31">
+        <v>100000</v>
+      </c>
+      <c r="F154" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="31">
+        <v>154</v>
+      </c>
+      <c r="B155" s="31">
+        <v>150</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D155" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E155" s="31">
+        <v>30000</v>
+      </c>
+      <c r="F155" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="31">
+        <v>155</v>
+      </c>
+      <c r="B156" s="31">
+        <v>151</v>
+      </c>
+      <c r="C156" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D156" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E156" s="31">
+        <v>10000</v>
+      </c>
+      <c r="F156" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="31">
+        <v>156</v>
+      </c>
+      <c r="B157" s="31">
+        <v>152</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D157" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E157" s="31">
+        <v>3000</v>
+      </c>
+      <c r="F157" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="31">
+        <v>157</v>
+      </c>
+      <c r="B158" s="31">
+        <v>153</v>
+      </c>
+      <c r="C158" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D158" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E158" s="31">
+        <v>2000</v>
+      </c>
+      <c r="F158" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="31">
+        <v>158</v>
+      </c>
+      <c r="B159" s="31">
+        <v>154</v>
+      </c>
+      <c r="C159" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D159" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E159" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F159" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="31">
+        <v>159</v>
+      </c>
+      <c r="B160" s="31">
+        <v>155</v>
+      </c>
+      <c r="C160" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D160" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E160" s="31">
+        <v>500</v>
+      </c>
+      <c r="F160" s="31">
         <v>1</v>
       </c>
     </row>

--- a/config_1.19/rank_server.xlsx
+++ b/config_1.19/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1363,7 +1363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1463,19 +1463,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1770,9 +1761,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1800,7 +1791,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2343,245 +2334,245 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27">
         <v>15</v>
       </c>
-      <c r="B16" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="27">
         <v>1604246400</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="27">
         <v>2555555555</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="27">
         <v>16</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="27">
         <v>15</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="27">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27">
         <v>16</v>
       </c>
-      <c r="B17" s="28" t="b">
+      <c r="B17" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <v>1604332800</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="27">
         <v>2555555555</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="27">
         <v>17</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="27">
         <v>16</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="27">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
         <v>17</v>
       </c>
-      <c r="B18" s="28" t="b">
+      <c r="B18" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <v>1604332800</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <v>2555555555</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="27">
         <v>18</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="27">
         <v>17</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="27">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27">
         <v>18</v>
       </c>
-      <c r="B19" s="28" t="b">
+      <c r="B19" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="27">
         <v>1604332800</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="27">
         <v>2555555555</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="27">
         <v>19</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="27">
         <v>18</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="27">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27">
         <v>19</v>
       </c>
-      <c r="B20" s="28" t="b">
+      <c r="B20" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="27">
         <v>1604332800</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="27">
         <v>2555555555</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="27">
         <v>20</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="27">
         <v>19</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="27">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27">
         <v>20</v>
       </c>
-      <c r="B21" s="41" t="b">
+      <c r="B21" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="27">
         <v>1607385600</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="27">
         <v>1607961599</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="H21" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="27">
         <v>21</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="27">
         <v>20</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="27">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" s="26" t="s">
+      <c r="B22" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="27">
         <v>1604246400</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="27">
         <v>2555555555</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="27">
         <v>21</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="27">
         <v>19</v>
       </c>
     </row>
@@ -2633,10 +2624,10 @@
       <c r="D24" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="44">
         <v>1608595200</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="44">
         <v>1609171199</v>
       </c>
       <c r="G24" s="27" t="s">
@@ -2668,10 +2659,10 @@
       <c r="D25" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="44">
         <v>1609200000</v>
       </c>
-      <c r="F25" s="47">
+      <c r="F25" s="44">
         <v>1609775999</v>
       </c>
       <c r="G25" s="27" t="s">
@@ -2703,10 +2694,10 @@
       <c r="D26" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="44">
         <v>1609804800</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="44">
         <v>1610380799</v>
       </c>
       <c r="G26" s="27" t="s">
@@ -3357,7 +3348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3370,10 +3361,10 @@
       <c r="D41" s="5">
         <v>22</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-    </row>
-    <row r="42" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+    </row>
+    <row r="42" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3386,8 +3377,8 @@
       <c r="D42" s="5">
         <v>22</v>
       </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
@@ -3569,7 +3560,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4006,7 +3997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4237,7 +4228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -4811,26 +4802,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42">
+    <row r="21" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39">
         <v>20</v>
       </c>
-      <c r="B21" s="42">
-        <v>1</v>
-      </c>
-      <c r="C21" s="42">
+      <c r="B21" s="39">
+        <v>1</v>
+      </c>
+      <c r="C21" s="39">
         <v>20</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="39">
         <v>100</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="39">
         <v>20</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="39">
         <v>180</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="39">
         <v>10</v>
       </c>
     </row>
@@ -5713,7 +5704,7 @@
       <c r="B26" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="44">
         <v>1609171199</v>
       </c>
     </row>
@@ -5724,7 +5715,7 @@
       <c r="B27" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="44">
         <v>1609775999</v>
       </c>
     </row>
@@ -5735,7 +5726,7 @@
       <c r="B28" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="44">
         <v>1610380799</v>
       </c>
     </row>
@@ -7855,7 +7846,7 @@
       <c r="G93" s="34">
         <v>92</v>
       </c>
-      <c r="H93" s="39" t="s">
+      <c r="H93" s="37" t="s">
         <v>122</v>
       </c>
       <c r="I93" s="34"/>
@@ -7878,7 +7869,7 @@
       <c r="G94" s="34">
         <v>93</v>
       </c>
-      <c r="H94" s="39" t="s">
+      <c r="H94" s="37" t="s">
         <v>122</v>
       </c>
       <c r="I94" s="34"/>
@@ -7901,7 +7892,7 @@
       <c r="G95" s="34">
         <v>94</v>
       </c>
-      <c r="H95" s="39" t="s">
+      <c r="H95" s="37" t="s">
         <v>122</v>
       </c>
       <c r="I95" s="34"/>
@@ -7924,7 +7915,7 @@
       <c r="G96" s="34">
         <v>95</v>
       </c>
-      <c r="H96" s="39" t="s">
+      <c r="H96" s="37" t="s">
         <v>122</v>
       </c>
       <c r="I96" s="34"/>
@@ -7947,7 +7938,7 @@
       <c r="G97" s="34">
         <v>96</v>
       </c>
-      <c r="H97" s="39" t="s">
+      <c r="H97" s="37" t="s">
         <v>122</v>
       </c>
       <c r="I97" s="34"/>
@@ -8394,166 +8385,166 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="42">
+    <row r="118" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="39">
         <v>117</v>
       </c>
-      <c r="B118" s="42">
+      <c r="B118" s="39">
         <v>18</v>
       </c>
-      <c r="C118" s="42">
-        <v>1</v>
-      </c>
-      <c r="D118" s="42">
-        <v>1</v>
-      </c>
-      <c r="E118" s="42"/>
-      <c r="F118" s="42"/>
-      <c r="G118" s="42">
+      <c r="C118" s="39">
+        <v>1</v>
+      </c>
+      <c r="D118" s="39">
+        <v>1</v>
+      </c>
+      <c r="E118" s="39"/>
+      <c r="F118" s="39"/>
+      <c r="G118" s="39">
         <v>102</v>
       </c>
-      <c r="H118" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="I118" s="42"/>
-    </row>
-    <row r="119" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="42">
+      <c r="H118" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I118" s="39"/>
+    </row>
+    <row r="119" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="39">
         <v>118</v>
       </c>
-      <c r="B119" s="42">
+      <c r="B119" s="39">
         <v>18</v>
       </c>
-      <c r="C119" s="42">
+      <c r="C119" s="39">
         <v>2</v>
       </c>
-      <c r="D119" s="42">
+      <c r="D119" s="39">
         <v>2</v>
       </c>
-      <c r="E119" s="42"/>
-      <c r="F119" s="42"/>
-      <c r="G119" s="42">
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39">
         <v>103</v>
       </c>
-      <c r="H119" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="I119" s="42"/>
-    </row>
-    <row r="120" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="42">
+      <c r="H119" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I119" s="39"/>
+    </row>
+    <row r="120" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="39">
         <v>119</v>
       </c>
-      <c r="B120" s="42">
+      <c r="B120" s="39">
         <v>18</v>
       </c>
-      <c r="C120" s="42">
+      <c r="C120" s="39">
         <v>3</v>
       </c>
-      <c r="D120" s="42">
+      <c r="D120" s="39">
         <v>3</v>
       </c>
-      <c r="E120" s="42"/>
-      <c r="F120" s="42"/>
-      <c r="G120" s="42">
+      <c r="E120" s="39"/>
+      <c r="F120" s="39"/>
+      <c r="G120" s="39">
         <v>104</v>
       </c>
-      <c r="H120" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="I120" s="42"/>
-    </row>
-    <row r="121" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="42">
+      <c r="H120" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I120" s="39"/>
+    </row>
+    <row r="121" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="39">
         <v>120</v>
       </c>
-      <c r="B121" s="42">
+      <c r="B121" s="39">
         <v>18</v>
       </c>
-      <c r="C121" s="42">
+      <c r="C121" s="39">
         <v>4</v>
       </c>
-      <c r="D121" s="42">
+      <c r="D121" s="39">
         <v>6</v>
       </c>
-      <c r="E121" s="42"/>
-      <c r="F121" s="42"/>
-      <c r="G121" s="42">
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39">
         <v>105</v>
       </c>
-      <c r="H121" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="I121" s="42"/>
-    </row>
-    <row r="122" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="42">
+      <c r="H121" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I121" s="39"/>
+    </row>
+    <row r="122" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="39">
         <v>121</v>
       </c>
-      <c r="B122" s="42">
+      <c r="B122" s="39">
         <v>18</v>
       </c>
-      <c r="C122" s="42">
+      <c r="C122" s="39">
         <v>7</v>
       </c>
-      <c r="D122" s="42">
+      <c r="D122" s="39">
         <v>10</v>
       </c>
-      <c r="E122" s="42"/>
-      <c r="F122" s="42"/>
-      <c r="G122" s="42">
+      <c r="E122" s="39"/>
+      <c r="F122" s="39"/>
+      <c r="G122" s="39">
         <v>106</v>
       </c>
-      <c r="H122" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="I122" s="42"/>
-    </row>
-    <row r="123" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="42">
-        <v>122</v>
-      </c>
-      <c r="B123" s="42">
+      <c r="H122" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I122" s="39"/>
+    </row>
+    <row r="123" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="39">
+        <v>122</v>
+      </c>
+      <c r="B123" s="39">
         <v>18</v>
       </c>
-      <c r="C123" s="42">
+      <c r="C123" s="39">
         <v>11</v>
       </c>
-      <c r="D123" s="42">
+      <c r="D123" s="39">
         <v>15</v>
       </c>
-      <c r="E123" s="42"/>
-      <c r="F123" s="42"/>
-      <c r="G123" s="42">
+      <c r="E123" s="39"/>
+      <c r="F123" s="39"/>
+      <c r="G123" s="39">
         <v>107</v>
       </c>
-      <c r="H123" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="I123" s="42"/>
-    </row>
-    <row r="124" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="42">
+      <c r="H123" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I123" s="39"/>
+    </row>
+    <row r="124" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="39">
         <v>123</v>
       </c>
-      <c r="B124" s="42">
+      <c r="B124" s="39">
         <v>18</v>
       </c>
-      <c r="C124" s="42">
+      <c r="C124" s="39">
         <v>16</v>
       </c>
-      <c r="D124" s="42">
+      <c r="D124" s="39">
         <v>20</v>
       </c>
-      <c r="E124" s="42"/>
-      <c r="F124" s="42"/>
-      <c r="G124" s="42">
+      <c r="E124" s="39"/>
+      <c r="F124" s="39"/>
+      <c r="G124" s="39">
         <v>108</v>
       </c>
-      <c r="H124" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="I124" s="42"/>
+      <c r="H124" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I124" s="39"/>
     </row>
     <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
@@ -9598,9 +9589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G156" sqref="G156"/>
+      <selection pane="bottomLeft" activeCell="C159" sqref="C159:C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11618,7 +11609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="31">
         <v>101</v>
       </c>
@@ -11638,7 +11629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="31">
         <v>102</v>
       </c>
@@ -11658,7 +11649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="31">
         <v>103</v>
       </c>
@@ -11678,7 +11669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="31">
         <v>104</v>
       </c>
@@ -11698,7 +11689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="31">
         <v>105</v>
       </c>
@@ -11718,143 +11709,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="42">
+    <row r="107" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="39">
         <v>106</v>
       </c>
-      <c r="B107" s="42">
+      <c r="B107" s="39">
         <v>102</v>
       </c>
-      <c r="C107" s="44" t="s">
+      <c r="C107" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="D107" s="44" t="s">
+      <c r="D107" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E107" s="42">
+      <c r="E107" s="39">
         <v>100000</v>
       </c>
-      <c r="F107" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="42">
+      <c r="F107" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="39">
         <v>107</v>
       </c>
-      <c r="B108" s="42">
+      <c r="B108" s="39">
         <v>103</v>
       </c>
-      <c r="C108" s="44" t="s">
+      <c r="C108" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="D108" s="44" t="s">
+      <c r="D108" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E108" s="42">
+      <c r="E108" s="39">
         <v>30000</v>
       </c>
-      <c r="F108" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="42">
+      <c r="F108" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="39">
         <v>108</v>
       </c>
-      <c r="B109" s="42">
+      <c r="B109" s="39">
         <v>104</v>
       </c>
-      <c r="C109" s="44" t="s">
+      <c r="C109" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="D109" s="44" t="s">
+      <c r="D109" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E109" s="42">
+      <c r="E109" s="39">
         <v>10000</v>
       </c>
-      <c r="F109" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="42">
+      <c r="F109" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="39">
         <v>109</v>
       </c>
-      <c r="B110" s="42">
+      <c r="B110" s="39">
         <v>105</v>
       </c>
-      <c r="C110" s="44" t="s">
+      <c r="C110" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="D110" s="44" t="s">
+      <c r="D110" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E110" s="42">
+      <c r="E110" s="39">
         <v>3000</v>
       </c>
-      <c r="F110" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="42">
+      <c r="F110" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="39">
         <v>110</v>
       </c>
-      <c r="B111" s="42">
+      <c r="B111" s="39">
         <v>106</v>
       </c>
-      <c r="C111" s="44" t="s">
+      <c r="C111" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="D111" s="44" t="s">
+      <c r="D111" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E111" s="42">
+      <c r="E111" s="39">
         <v>2000</v>
       </c>
-      <c r="F111" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="42">
+      <c r="F111" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="39">
         <v>111</v>
       </c>
-      <c r="B112" s="42">
+      <c r="B112" s="39">
         <v>107</v>
       </c>
-      <c r="C112" s="44" t="s">
+      <c r="C112" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="D112" s="44" t="s">
+      <c r="D112" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E112" s="42">
+      <c r="E112" s="39">
         <v>1000</v>
       </c>
-      <c r="F112" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="42">
+      <c r="F112" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="39">
         <v>112</v>
       </c>
-      <c r="B113" s="42">
+      <c r="B113" s="39">
         <v>108</v>
       </c>
-      <c r="C113" s="44" t="s">
+      <c r="C113" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="D113" s="44" t="s">
+      <c r="D113" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E113" s="42">
+      <c r="E113" s="39">
         <v>500</v>
       </c>
-      <c r="F113" s="42">
+      <c r="F113" s="39">
         <v>1</v>
       </c>
     </row>

--- a/config_1.19/rank_server.xlsx
+++ b/config_1.19/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1761,9 +1761,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2721,7 +2721,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>261</v>
@@ -4228,7 +4228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
